--- a/Transavia/Production/Results/Results_daily_Ciugud.xlsx
+++ b/Transavia/Production/Results/Results_daily_Ciugud.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/Transavia/Production/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_BB3583337A4894B6938EE731F0AB8307EB4D9198" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C97195D-D85D-48E0-A9C3-F5AD42FC6D49}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prediction_Production" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,8 +34,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,21 +67,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -110,7 +128,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -144,6 +162,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,9 +197,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -353,14 +373,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,6 +395,1326 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>3.3104993053711951E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.226187217980623E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1.9298352301120762E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>6.2004715204238892E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>9.2615582048892975E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>9.8636806011199951E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>9.5181107521057129E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>8.1217400729656219E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>5.1616460084915161E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>2.1189982071518901E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>-7.5040548108518124E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>-4.1014791349880397E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>-4.1014791349880397E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.053248415701091E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.053248415701091E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.053248415701091E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.053248415701091E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>3.5981662222184241E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>3.9044336881488562E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>3.6799503141082818E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>4.4391781557351351E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>4.4391781557351351E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4.4391781557351351E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>2.5507315876893699E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>4.1532202158123249E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>5.5284332484006882E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>5.3652316331863403E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0.1028524115681648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>0.13979101181030271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>0.15718783438205719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>0.14168371260166171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>8.6471118032932281E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>5.3605042397975922E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>2.1189982071518901E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>1.9786260090768342E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>1.053248415701091E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>1.053248415701091E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>-4.1014791349880397E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>-4.1014791349880397E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>-2.654516720212996E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>-4.1014791349880397E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>2.1347697474993771E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2.1347697474993771E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2.1347697474993771E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>1.0874357394641269E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>3.3104993053711951E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>3.7572691217064862E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>1.3830302283167841E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>3.9604499936103821E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>6.2004715204238892E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>6.6193267703056335E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>6.4192637801170349E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>4.9700889736413963E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>2.8139170259237289E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>9.0550389140844345E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>5.1679602620424703E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>5.1679602620424703E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>5.1679602620424703E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>5.1679602620424703E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>5.1679602620424703E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>5.1679602620424703E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>5.1679602620424703E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>3.0617124866694212E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>3.3104993053711951E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>1.02823693305254E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>1.2438574805855749E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>3.4842513501644128E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>5.8267872780561447E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>6.4104177057743073E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>6.2103547155857093E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>5.0124581903219223E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>3.6862168461084373E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>1.248782500624657E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B91">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>1.053248415701091E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B92">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>1.053248415701091E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B93">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>4.2031977500300848E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>4.2031977500300848E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B95">
+        <v>21</v>
+      </c>
+      <c r="C95">
+        <v>6.0287397354841232E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B96">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>-6.2299863202497363E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B97">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>-6.2299863202497363E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1.9152660388499501E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1.9152660388499501E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>1.9152660388499501E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>1.9152660388499501E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>1.9152660388499501E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>1.9152660388499501E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>1.8264219397678971E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>4.3017459101974964E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>8.2853827625513077E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>5.3998656570911407E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>9.167904406785965E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>0.1211052313446999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>0.13821861147880549</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B111">
+        <v>13</v>
+      </c>
+      <c r="C111">
+        <v>0.13382004201412201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>8.9373350143432617E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>3.7280894815921783E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>2.7523258700966838E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B115">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>2.651029266417027E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B116">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>7.3973395046778023E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B117">
+        <v>19</v>
+      </c>
+      <c r="C117">
+        <v>7.3973395046778023E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B118">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>7.3973395046778023E-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B119">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <v>7.3973395046778023E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B120">
+        <v>22</v>
+      </c>
+      <c r="C120">
+        <v>7.3973395046778023E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B121">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>7.3973395046778023E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Ciugud.xlsx
+++ b/Transavia/Production/Results/Results_daily_Ciugud.xlsx
@@ -377,98 +377,98 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.0250858161598444</v>
+        <v>0.1724507957696915</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.008055063895881176</v>
+        <v>0.1414089649915695</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.000458903145045042</v>
+        <v>0.1124799698591232</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.0003340590337757021</v>
+        <v>0.08562341332435608</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.0003340590337757021</v>
+        <v>0.05932857841253281</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.0003340590337757021</v>
+        <v>0.03344633430242538</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.0003340590337757021</v>
+        <v>0.01085534039884806</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.0003340590337757021</v>
+        <v>0.000406462320825085</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>0.0003340590337757021</v>
@@ -479,10 +479,10 @@
         <v>45365</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.0001695053651928902</v>
+        <v>0.0003340590337757021</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -490,10 +490,10 @@
         <v>45365</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0.0001695053651928902</v>
+        <v>0.0003340590337757021</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -501,10 +501,10 @@
         <v>45365</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.0001695053651928902</v>
+        <v>0.0003340590337757021</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -512,10 +512,10 @@
         <v>45365</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.0001695053651928902</v>
+        <v>0.0003340590337757021</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -523,219 +523,219 @@
         <v>45365</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.0001695053651928902</v>
+        <v>0.0003340590337757021</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.000765661068726331</v>
+        <v>0.0001695053651928902</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.01058878377079964</v>
+        <v>0.0001695053651928902</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.03737254440784454</v>
+        <v>0.0001695053651928902</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.05131393298506737</v>
+        <v>0.0001695053651928902</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.06907984614372253</v>
+        <v>0.0001695053651928902</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.08685120940208435</v>
+        <v>0.000765661068726331</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.09634566307067871</v>
+        <v>0.01058878377079964</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.09543677419424057</v>
+        <v>0.03427769616246223</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.08593100309371948</v>
+        <v>0.0448046550154686</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.06179205328226089</v>
+        <v>0.06907984614372253</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.03937570005655289</v>
+        <v>0.09369896352291107</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.01218513678759336</v>
+        <v>0.09574264287948608</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0.000406462320825085</v>
+        <v>0.1020375415682793</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.0003340590337757021</v>
+        <v>0.09320145100355148</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>0.0003340590337757021</v>
+        <v>0.08667901903390884</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.0003340590337757021</v>
+        <v>0.05695593729615211</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.0003340590337757021</v>
+        <v>0.02225511334836483</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.0003340590337757021</v>
+        <v>0.0008704591309651732</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>0.0003340590337757021</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -743,10 +743,10 @@
         <v>45366</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0.0001695053651928902</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -754,10 +754,10 @@
         <v>45366</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>0.0001695053651928902</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -765,10 +765,10 @@
         <v>45366</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>0.0001695053651928902</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -776,10 +776,10 @@
         <v>45366</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.0001695053651928902</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -787,219 +787,219 @@
         <v>45366</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>0.0001695053651928902</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.000765661068726331</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.01379485707730055</v>
+        <v>6.792657950427383E-05</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.0504697784781456</v>
+        <v>0.0001261585857719183</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.1070335432887077</v>
+        <v>-9.211637006956153E-06</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.1595179587602615</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.1964136064052582</v>
+        <v>0.001441583037376404</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.1767179071903229</v>
+        <v>0.04631901159882545</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0.1756380200386047</v>
+        <v>0.1305746287107468</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.1627667993307114</v>
+        <v>0.2367148697376251</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.1202836409211159</v>
+        <v>0.2614522576332092</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.06806015968322754</v>
+        <v>0.2841688692569733</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>0.02945750765502453</v>
+        <v>0.2565180361270905</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0.0008704591309651732</v>
+        <v>0.2288579195737839</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>0.0002413647016510367</v>
+        <v>0.1958121508359909</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>0.0002558343112468719</v>
+        <v>0.1576082706451416</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>0.0002558343112468719</v>
+        <v>0.08792281895875931</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>0.0002558343112468719</v>
+        <v>0.0297673549503088</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>0.000271148222964257</v>
+        <v>0.0007809403468854725</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0.0002287341485498473</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>45367</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>0.0001261585857719183</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>45367</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0.0001261585857719183</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>45367</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>-9.211637006956153E-06</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>45367</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.0001796330470824614</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1051,219 +1051,219 @@
         <v>45367</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.0001796330470824614</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.001441583037376404</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.04631901159882545</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.139706552028656</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>0.2378978878259659</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>0.2726421654224396</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0.2867036759853363</v>
+        <v>0.000765661068726331</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0.2476851493120193</v>
+        <v>0.01457713730633259</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>0.225074827671051</v>
+        <v>0.04341812059283257</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0.1809591352939606</v>
+        <v>0.07049558311700821</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.14011549949646</v>
+        <v>0.09848149120807648</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.08281602710485458</v>
+        <v>0.0996471643447876</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.02408470585942268</v>
+        <v>0.1115959137678146</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>0.0007809403468854725</v>
+        <v>0.1192313432693481</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>0.0001518458448117599</v>
+        <v>0.1312002837657928</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>0.0001518458448117599</v>
+        <v>0.1195885241031647</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>0.0001518458448117599</v>
+        <v>0.08269453048706055</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.0001518458448117599</v>
+        <v>0.03403725102543831</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>0.0002413647016510367</v>
+        <v>0.002616596175357699</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0.0002413647016510367</v>
+        <v>0.0002558343112468719</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1271,10 +1271,10 @@
         <v>45368</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002558343112468719</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1282,10 +1282,10 @@
         <v>45368</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>45368</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>45368</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1315,219 +1315,219 @@
         <v>45368</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.0008709169342182577</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.02014992199838161</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.06376957893371582</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.1031592264771461</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.1222095862030983</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0.1472718566656113</v>
+        <v>0.001329876482486725</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0.1515090465545654</v>
+        <v>0.03827297315001488</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0.152738094329834</v>
+        <v>0.1141987070441246</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.1313217729330063</v>
+        <v>0.2097964137792587</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.09320962429046631</v>
+        <v>0.2230495065450668</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.05686641857028008</v>
+        <v>0.2351959496736526</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.02216559462249279</v>
+        <v>0.1977189034223557</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>0.0007809403468854725</v>
+        <v>0.1764377951622009</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>0.0001518458448117599</v>
+        <v>0.1637243628501892</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>0.0002413647016510367</v>
+        <v>0.105662539601326</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>0.0002413647016510367</v>
+        <v>0.06353344768285751</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>0.0002413647016510367</v>
+        <v>0.02298963628709316</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0.0002413647016510367</v>
+        <v>0.001256577903404832</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>0.0002413647016510367</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>45369</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>7.681096030864865E-05</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>45369</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>45369</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>45369</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1579,219 +1579,219 @@
         <v>45369</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.001338760950602591</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.02465233020484447</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>0.07236112654209137</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.126629114151001</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>0.1691184639930725</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>0.1731182932853699</v>
+        <v>0.001338760950602591</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.1593870520591736</v>
+        <v>0.02014992199838161</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>0.1713858991861343</v>
+        <v>0.04915648326277733</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.1537066251039505</v>
+        <v>0.06470612436532974</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.09675085544586182</v>
+        <v>0.08259467035531998</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.06819363683462143</v>
+        <v>0.09331468492746353</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>0.02292403392493725</v>
+        <v>0.09440647065639496</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>0.0007809403468854725</v>
+        <v>0.09428497403860092</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>0.0001518458448117599</v>
+        <v>0.0751064121723175</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>0.0002413647016510367</v>
+        <v>0.06345207989215851</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>0.0002413647016510367</v>
+        <v>0.03911993280053139</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B128">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>0.0002413647016510367</v>
+        <v>0.01727842353284359</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B129">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0.0002413647016510367</v>
+        <v>0.0008736350573599339</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>0.0002413647016510367</v>
+        <v>0.0002445401914883405</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>45370</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002445401914883405</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>45370</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002445401914883405</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>45370</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>7.681096030864865E-05</v>
+        <v>0.0003340590337757021</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>45370</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>7.681096030864865E-05</v>
+        <v>0.0001366313081234694</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1843,216 +1843,216 @@
         <v>45370</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.001338760950602591</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>0.02233936823904514</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>0.06376957893371582</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>0.1031592264771461</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>0.1236167028546333</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.146924152970314</v>
+        <v>0.001338760950602591</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>0.159508541226387</v>
+        <v>0.02751955017447472</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>0.1612283289432526</v>
+        <v>0.07624824345111847</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.1412873566150665</v>
+        <v>0.1274026334285736</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.09595975279808044</v>
+        <v>0.1706939190626144</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.06088153272867203</v>
+        <v>0.1953385323286057</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>0.02272274531424046</v>
+        <v>0.1767179071903229</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>0.001075574778951705</v>
+        <v>0.1707076132297516</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>0.000643908279016614</v>
+        <v>0.1397641450166702</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>0.0002445401914883405</v>
+        <v>0.1054263561964035</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>0.0002445401914883405</v>
+        <v>0.06627091765403748</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>4.71124476462137E-05</v>
+        <v>0.02252466790378094</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0.0001366313081234694</v>
+        <v>0.0008704591309651732</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C154">
         <v>0.0002413647016510367</v>
@@ -2063,10 +2063,10 @@
         <v>45371</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>45371</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>45371</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>45371</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2107,219 +2107,219 @@
         <v>45371</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>7.681096030864865E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.001234027557075024</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.02014992199838161</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>0.05310904234647751</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.1031592264771461</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.1256729960441589</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.1474296450614929</v>
+        <v>0.001338760950602591</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.1419617086648941</v>
+        <v>0.02875802107155323</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0.1327821463346481</v>
+        <v>0.08570453524589539</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B168">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.09929763525724411</v>
+        <v>0.1451549530029297</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B169">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.09583508968353271</v>
+        <v>0.2054465264081955</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.06275355815887451</v>
+        <v>0.215507298707962</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B171">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C171">
-        <v>0.01863604784011841</v>
+        <v>0.2152193635702133</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B172">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C172">
-        <v>0.001430787262506783</v>
+        <v>0.2009519934654236</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B173">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>0.0009250321891158819</v>
+        <v>0.188726618885994</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B174">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C174">
-        <v>0.000643908279016614</v>
+        <v>0.1591785699129105</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B175">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C175">
-        <v>0.000643908279016614</v>
+        <v>0.09293095767498016</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B176">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C176">
-        <v>0.000643908279016614</v>
+        <v>0.02671741135418415</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B177">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>0.0002445401914883405</v>
+        <v>0.001655945787206292</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B178">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C178">
-        <v>0.0002445401914883405</v>
+        <v>0.0005512136849574745</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>45372</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C179">
-        <v>1.984617256312049E-06</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>45372</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C180">
-        <v>1.984617256312049E-06</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>45372</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C181">
-        <v>1.984617256312049E-06</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>45372</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C182">
-        <v>1.984617256312049E-06</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2371,216 +2371,216 @@
         <v>45372</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C183">
-        <v>1.984617256312049E-06</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0.001263934536837041</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>0.02007509395480156</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B186">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>0.04928703233599663</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>0.09540608525276184</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>0.1214360669255257</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B189">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189">
-        <v>0.1472718566656113</v>
+        <v>0.001338760950602591</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>0.1588941514492035</v>
+        <v>0.02014992199838161</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B191">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C191">
-        <v>0.1708929985761642</v>
+        <v>0.06360205262899399</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C192">
-        <v>0.161289393901825</v>
+        <v>0.1159356310963631</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B193">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C193">
-        <v>0.1117721349000931</v>
+        <v>0.1578730046749115</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C194">
-        <v>0.07158782333135605</v>
+        <v>0.1973406374454498</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C195">
-        <v>0.02372352778911591</v>
+        <v>0.199353039264679</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C196">
-        <v>0.001180308172479272</v>
+        <v>0.1978322416543961</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B197">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C197">
-        <v>0.0005512136849574745</v>
+        <v>0.1713497787714005</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B198">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C198">
-        <v>0.0001518458448117599</v>
+        <v>0.126216858625412</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B199">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C199">
-        <v>0.0001518458448117599</v>
+        <v>0.08567176759243011</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B200">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C200">
-        <v>0.0001518458448117599</v>
+        <v>0.0277181938290596</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B201">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C201">
-        <v>0.0001518458448117599</v>
+        <v>0.001655945787206292</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B202">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C202">
         <v>0.0001518458448117599</v>
@@ -2591,10 +2591,10 @@
         <v>45373</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C203">
-        <v>-9.070978558156639E-05</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>45373</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C204">
-        <v>-9.070978558156639E-05</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>45373</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C205">
-        <v>-9.070978558156639E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>45373</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C206">
-        <v>-9.070978558156639E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2635,219 +2635,219 @@
         <v>45373</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C207">
-        <v>-9.070978558156639E-05</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>0.001171239884570241</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>0.01998239941895008</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B210">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C210">
-        <v>0.06360205262899399</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C211">
-        <v>0.1193993389606476</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C212">
-        <v>0.1692400872707367</v>
+        <v>7.681096030864865E-05</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C213">
-        <v>0.1900436729192734</v>
+        <v>0.001338760950602591</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>0.1606351435184479</v>
+        <v>0.03228876367211342</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C215">
-        <v>0.1425171941518784</v>
+        <v>0.1040793508291245</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B216">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>0.09580953419208527</v>
+        <v>0.1615053415298462</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B217">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C217">
-        <v>0.06397576630115509</v>
+        <v>0.1875790059566498</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B218">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C218">
-        <v>0.042372927069664</v>
+        <v>0.224262535572052</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B219">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C219">
-        <v>0.02216559462249279</v>
+        <v>0.2288151830434799</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B220">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C220">
-        <v>0.001256577903404832</v>
+        <v>0.2202299386262894</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B221">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C221">
-        <v>0.0001518458448117599</v>
+        <v>0.2030500024557114</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B222">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C222">
-        <v>0.0001518458448117599</v>
+        <v>0.1836311966180801</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B223">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C223">
-        <v>0.0001518458448117599</v>
+        <v>0.1331295669078827</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B224">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C224">
-        <v>0.0001518458448117599</v>
+        <v>0.04615230858325958</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B225">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C225">
-        <v>0.0001518458448117599</v>
+        <v>0.004746478982269764</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B226">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C226">
-        <v>0.0001518458448117599</v>
+        <v>0.0002287341485498473</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2855,10 +2855,10 @@
         <v>45374</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C227">
-        <v>-9.070978558156639E-05</v>
+        <v>0.0002287341485498473</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2866,10 +2866,10 @@
         <v>45374</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C228">
-        <v>-9.070978558156639E-05</v>
+        <v>0.0002287341485498473</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2877,10 +2877,10 @@
         <v>45374</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C229">
-        <v>1.984617256312049E-06</v>
+        <v>0.0002287341485498473</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2888,10 +2888,10 @@
         <v>45374</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C230">
-        <v>1.984617256312049E-06</v>
+        <v>0.0002287341485498473</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2899,219 +2899,219 @@
         <v>45374</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C231">
-        <v>1.984617256312049E-06</v>
+        <v>0.0002062858111457899</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>0.001263934536837041</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>0.01519988570362329</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B234">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C234">
-        <v>0.04344803094863892</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C235">
-        <v>0.07070840150117874</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B236">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C236">
-        <v>0.09860298782587051</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C237">
-        <v>0.1097046881914139</v>
+        <v>0.005994109902530909</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B238">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C238">
-        <v>0.1423094123601913</v>
+        <v>0.06382814049720764</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B239">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C239">
-        <v>0.1604561507701874</v>
+        <v>0.1647871285676956</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B240">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C240">
-        <v>0.1409396529197693</v>
+        <v>0.2521166205406189</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B241">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C241">
-        <v>0.1125456541776657</v>
+        <v>0.2709059417247772</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B242">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C242">
-        <v>0.07756397873163223</v>
+        <v>0.2836195528507233</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B243">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C243">
-        <v>0.02524327300488949</v>
+        <v>0.2411037087440491</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B244">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C244">
-        <v>0.001655945787206292</v>
+        <v>0.1901730746030807</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B245">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>0.0008323375368490815</v>
+        <v>0.1710884571075439</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B246">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C246">
-        <v>0.0005512136849574745</v>
+        <v>0.09933293610811234</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B247">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C247">
-        <v>0.0005512136849574745</v>
+        <v>0.0577474981546402</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B248">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C248">
-        <v>0.0001518458448117599</v>
+        <v>0.02265765517950058</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B249">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C249">
-        <v>0.0001518458448117599</v>
+        <v>0.001151844509877264</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B250">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C250">
-        <v>0.0002445401914883405</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3119,10 +3119,10 @@
         <v>45375</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C251">
-        <v>1.984617256312049E-06</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>45375</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C252">
-        <v>0.0001695053651928902</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3141,10 +3141,10 @@
         <v>45375</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C253">
-        <v>0.0001695053651928902</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>45375</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C254">
-        <v>0.0001695053651928902</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3163,219 +3163,219 @@
         <v>45375</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C255">
-        <v>0.0001695053651928902</v>
+        <v>0.0002287341485498473</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>0.001431455602869391</v>
+        <v>0.0001037102701957338</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>0.02024261653423309</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B258">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C258">
-        <v>0.04972203448414803</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C259">
-        <v>0.07128620892763138</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B260">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C260">
-        <v>0.091306172311306</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B261">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C261">
-        <v>0.1028415933251381</v>
+        <v>0.005994109902530909</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B262">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C262">
-        <v>0.1596663296222687</v>
+        <v>0.06369636952877045</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B263">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C263">
-        <v>0.1845829784870148</v>
+        <v>0.1683035045862198</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B264">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C264">
-        <v>0.159332349896431</v>
+        <v>0.2628295123577118</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B265">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C265">
-        <v>0.133687436580658</v>
+        <v>0.3058621287345886</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B266">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C266">
-        <v>0.07180475443601608</v>
+        <v>0.3083008229732513</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B267">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C267">
-        <v>0.0277181938290596</v>
+        <v>0.2881640195846558</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B268">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C268">
-        <v>0.003069760045036674</v>
+        <v>0.2270209640264511</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C269">
-        <v>0.0008323375368490815</v>
+        <v>0.2034259736537933</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B270">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C270">
-        <v>0.0005512136849574745</v>
+        <v>0.182672843337059</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B271">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C271">
-        <v>0.0005512136849574745</v>
+        <v>0.1254718005657196</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B272">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C272">
-        <v>0.0001518458448117599</v>
+        <v>0.0519583486020565</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B273">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C273">
-        <v>0.0001518458448117599</v>
+        <v>0.004324662033468485</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B274">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C274">
-        <v>0.0002445401914883405</v>
+        <v>0.0002062858111457899</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3383,10 +3383,10 @@
         <v>45376</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C275">
-        <v>1.984617256312049E-06</v>
+        <v>0.0002062858111457899</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3394,10 +3394,10 @@
         <v>45376</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C276">
-        <v>1.984617256312049E-06</v>
+        <v>0.0002062858111457899</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3405,10 +3405,10 @@
         <v>45376</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C277">
-        <v>1.984617256312049E-06</v>
+        <v>0.0002062858111457899</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3416,10 +3416,10 @@
         <v>45376</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C278">
-        <v>1.984617256312049E-06</v>
+        <v>9.336393850389868E-05</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3427,219 +3427,219 @@
         <v>45376</v>
       </c>
       <c r="B279">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C279">
-        <v>1.984617256312049E-06</v>
+        <v>0.00028220858075656</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B280">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C280">
-        <v>0.001263934536837041</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C281">
-        <v>0.01440961565822363</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C282">
-        <v>0.03629453107714653</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C283">
-        <v>0.05000064522027969</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B284">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C284">
-        <v>0.06391570717096329</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C285">
-        <v>0.06988554447889328</v>
+        <v>0.005994109902530909</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B286">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C286">
-        <v>0.07193586230278015</v>
+        <v>0.05756307765841484</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B287">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C287">
-        <v>0.0687340572476387</v>
+        <v>0.1679929047822952</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B288">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C288">
-        <v>0.05489196255803108</v>
+        <v>0.2477358132600784</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B289">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C289">
-        <v>0.03876959159970284</v>
+        <v>0.2851110100746155</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B290">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C290">
-        <v>0.01838411949574947</v>
+        <v>0.3066695034503937</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C291">
-        <v>0.008273137733340263</v>
+        <v>0.2549294233322144</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B292">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C292">
-        <v>0.001140672829933465</v>
+        <v>0.2485063672065735</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B293">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C293">
-        <v>0.0002445401914883405</v>
+        <v>0.2141002118587494</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B294">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C294">
-        <v>0.0003340590337757021</v>
+        <v>0.1771963387727737</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B295">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C295">
-        <v>0.0003340590337757021</v>
+        <v>0.1254718005657196</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B296">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C296">
-        <v>0.0003340590337757021</v>
+        <v>0.05188664048910141</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B297">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C297">
-        <v>0.0003340590337757021</v>
+        <v>0.004356370307505131</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B298">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C298">
-        <v>0.0003340590337757021</v>
+        <v>0.00028220858075656</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3647,10 +3647,10 @@
         <v>45377</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C299">
-        <v>0.0001695053651928902</v>
+        <v>0.00028220858075656</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3658,10 +3658,10 @@
         <v>45377</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C300">
-        <v>0.0001695053651928902</v>
+        <v>0.00028220858075656</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3669,10 +3669,10 @@
         <v>45377</v>
       </c>
       <c r="B301">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C301">
-        <v>0.0001695053651928902</v>
+        <v>0.00028220858075656</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3680,10 +3680,10 @@
         <v>45377</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C302">
-        <v>0.0001695053651928902</v>
+        <v>0.00028220858075656</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3691,219 +3691,219 @@
         <v>45377</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C303">
-        <v>0.0001695053651928902</v>
+        <v>0.00028220858075656</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B304">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>0.0009636113536544144</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>0.01103951688855886</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B306">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C306">
-        <v>0.02468820475041866</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C307">
-        <v>0.03486544266343117</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C308">
-        <v>0.03796029090881348</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B309">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C309">
-        <v>0.05056162178516388</v>
+        <v>0.005994109902530909</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C310">
-        <v>0.06105213239789009</v>
+        <v>0.04403024539351463</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B311">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C311">
-        <v>0.06407655775547028</v>
+        <v>0.1334385275840759</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C312">
-        <v>0.06334341317415237</v>
+        <v>0.2245453894138336</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C313">
-        <v>0.06525876373052597</v>
+        <v>0.2588532567024231</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B314">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C314">
-        <v>0.05257412046194077</v>
+        <v>0.2554031312465668</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B315">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C315">
-        <v>0.02230659499764442</v>
+        <v>0.2830096483230591</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B316">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C316">
-        <v>0.002294533420354128</v>
+        <v>0.1947281211614609</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B317">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C317">
-        <v>0.0002413647016510367</v>
+        <v>0.207891508936882</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B318">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C318">
-        <v>0.0002413647016510367</v>
+        <v>0.1788089573383331</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B319">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C319">
-        <v>0.0002413647016510367</v>
+        <v>0.1146832704544067</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B320">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C320">
-        <v>0.0002413647016510367</v>
+        <v>0.04510600864887238</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B321">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C321">
-        <v>0.0002413647016510367</v>
+        <v>0.0047735795378685</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B322">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C322">
-        <v>0.0002287341485498473</v>
+        <v>0.0001518458448117599</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3911,10 +3911,10 @@
         <v>45378</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C323">
-        <v>0.0001261585857719183</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3922,10 +3922,10 @@
         <v>45378</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C324">
-        <v>0.0001261585857719183</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3933,10 +3933,10 @@
         <v>45378</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C325">
-        <v>0.0001261585857719183</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3944,10 +3944,10 @@
         <v>45378</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C326">
-        <v>0.0001261585857719183</v>
+        <v>0.0002413647016510367</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3955,131 +3955,131 @@
         <v>45378</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C327">
-        <v>0.0001261585857719183</v>
+        <v>0.0002287341485498473</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B328">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C328">
-        <v>0.003337024245411158</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>0.03827297315001488</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C330">
-        <v>0.1213837787508965</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B331">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C331">
-        <v>0.1787911504507065</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B332">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>0.2069900929927826</v>
+        <v>0.0001796330470824614</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B333">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C333">
-        <v>0.2239139974117279</v>
+        <v>0.007553978357464075</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B334">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C334">
-        <v>0.224353700876236</v>
+        <v>0.06835539638996124</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B335">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C335">
-        <v>0.1937416940927505</v>
+        <v>0.178055539727211</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B336">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C336">
-        <v>0.1732036471366882</v>
+        <v>0.255610466003418</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C337">
-        <v>0.106233574450016</v>
+        <v>0.2820528149604797</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B338">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C338">
-        <v>0.06334368884563446</v>
+        <v>0.3051823675632477</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Ciugud.xlsx
+++ b/Transavia/Production/Results/Results_daily_Ciugud.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0.02903703786432743</v>
+        <v>0.0003298412193544209</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.004092991352081299</v>
+        <v>0.0003298412193544209</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
       <c r="C4">
-        <v>0.0002287341485498473</v>
+        <v>0.1443001627922058</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0.0002413647016510367</v>
+        <v>0.0914604663848877</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0.0002413647016510367</v>
+        <v>0.01056172233074903</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7">
-        <v>0.0002413647016510367</v>
+        <v>0.0006026824121363461</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
       <c r="C8">
-        <v>0.0002413647016510367</v>
+        <v>0.0006026824121363461</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
       <c r="C9">
-        <v>0.0002413647016510367</v>
+        <v>0.0003790048358496279</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.681096030864865E-05</v>
+        <v>-4.136415373068303E-05</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>7.681096030864865E-05</v>
+        <v>0.0001062642695615068</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>6.792657950427383E-05</v>
+        <v>0.0001609122118679807</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.0001261585857719183</v>
+        <v>0.0002419941010884941</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.0001261585857719183</v>
+        <v>0.0002419941010884941</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>0.001388108590617776</v>
+        <v>0.0002419941010884941</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>0.03827297315001488</v>
+        <v>0.01028940547257662</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0.1332645267248154</v>
+        <v>0.08351073414087296</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.2035079449415207</v>
+        <v>0.1909184902906418</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.2412767857313156</v>
+        <v>0.246611624956131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.2526775598526001</v>
+        <v>0.3039505779743195</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B21">
         <v>11</v>
       </c>
       <c r="C21">
-        <v>0.2187335193157196</v>
+        <v>0.3355648815631866</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>0.2057477980852127</v>
+        <v>0.3417039811611176</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B23">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>0.1824078559875488</v>
+        <v>0.3279791474342346</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B24">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>0.1535597592592239</v>
+        <v>0.3186923563480377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B25">
         <v>15</v>
       </c>
       <c r="C25">
-        <v>0.08664447069168091</v>
+        <v>0.2805593609809875</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B26">
         <v>16</v>
       </c>
       <c r="C26">
-        <v>0.04299598932266235</v>
+        <v>0.2056873887777328</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B27">
         <v>17</v>
       </c>
       <c r="C27">
-        <v>0.002560441382229328</v>
+        <v>0.1626182943582535</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B28">
         <v>18</v>
       </c>
       <c r="C28">
-        <v>0.0002287341485498473</v>
+        <v>0.08412060886621475</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B29">
         <v>19</v>
       </c>
       <c r="C29">
-        <v>0.0002287341485498473</v>
+        <v>0.05443688109517097</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
       <c r="C30">
-        <v>0.0002287341485498473</v>
+        <v>0.006481552496552467</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B31">
         <v>21</v>
       </c>
       <c r="C31">
-        <v>0.0002287341485498473</v>
+        <v>0.0002195991983171552</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B32">
         <v>22</v>
       </c>
       <c r="C32">
-        <v>0.0002287341485498473</v>
+        <v>5.731062628910877E-05</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B33">
         <v>23</v>
       </c>
       <c r="C33">
-        <v>0.0002287341485498473</v>
+        <v>5.731062628910877E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>6.792657950427383E-05</v>
+        <v>5.278981188894249E-05</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>6.792657950427383E-05</v>
+        <v>0.0001074377505574375</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>0.0001261585857719183</v>
+        <v>0.0001074377505574375</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.0001261585857719183</v>
+        <v>0.0001074377505574375</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>0.0001261585857719183</v>
+        <v>0.0001074377505574375</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.003119776723906398</v>
+        <v>0.0001074377505574375</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.05750960484147072</v>
+        <v>0.007109914440661669</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.1651348322629929</v>
+        <v>0.06261910498142242</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>0.2587497234344482</v>
+        <v>0.1305042505264282</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B43">
         <v>9</v>
       </c>
       <c r="C43">
-        <v>0.2987351417541504</v>
+        <v>0.1875510364770889</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44">
-        <v>0.307932585477829</v>
+        <v>0.2086605876684189</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B45">
         <v>11</v>
       </c>
       <c r="C45">
-        <v>0.2145815491676331</v>
+        <v>0.2264161854982376</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B46">
         <v>12</v>
       </c>
       <c r="C46">
-        <v>0.2555176615715027</v>
+        <v>0.2214955687522888</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
       <c r="C47">
-        <v>0.2153200954198837</v>
+        <v>0.2138915210962296</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
       <c r="C48">
-        <v>0.1731424182653427</v>
+        <v>0.1706837564706802</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B49">
         <v>15</v>
       </c>
       <c r="C49">
-        <v>0.1032070517539978</v>
+        <v>0.1207046881318092</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B50">
         <v>16</v>
       </c>
       <c r="C50">
-        <v>0.04195593297481537</v>
+        <v>0.08856230974197388</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B51">
         <v>17</v>
       </c>
       <c r="C51">
-        <v>0.002526248106732965</v>
+        <v>0.06401209533214569</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B52">
         <v>18</v>
       </c>
       <c r="C52">
-        <v>0.0002287341485498473</v>
+        <v>0.08290190249681473</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B53">
         <v>19</v>
       </c>
       <c r="C53">
-        <v>0.0002287341485498473</v>
+        <v>0.03164336830377579</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B54">
         <v>20</v>
       </c>
       <c r="C54">
-        <v>0.0002287341485498473</v>
+        <v>0.004304413683712482</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B55">
         <v>21</v>
       </c>
       <c r="C55">
-        <v>0.0002287341485498473</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B56">
         <v>22</v>
       </c>
       <c r="C56">
-        <v>0.0002287341485498473</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B57">
         <v>23</v>
       </c>
       <c r="C57">
-        <v>0.0002287341485498473</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0.0001261585857719183</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0.0001261585857719183</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60">
-        <v>0.0001796330470824614</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0.0002607149363029748</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>0.0002607149363029748</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>0.006075191777199507</v>
+        <v>-1.211711787618697E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>0.06843648105859756</v>
+        <v>0.005430491641163826</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B65">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>0.178055539727211</v>
+        <v>0.03618372976779938</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
       <c r="C66">
-        <v>0.2521166205406189</v>
+        <v>0.06259923428297043</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67">
-        <v>0.2820528149604797</v>
+        <v>0.1227940917015076</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
       <c r="C68">
-        <v>0.2510315179824829</v>
+        <v>0.1409341096878052</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B69">
         <v>11</v>
       </c>
       <c r="C69">
-        <v>0.2881616055965424</v>
+        <v>0.1719927936792374</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B70">
         <v>12</v>
       </c>
       <c r="C70">
-        <v>0.2100973576307297</v>
+        <v>0.1867503076791763</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B71">
         <v>13</v>
       </c>
       <c r="C71">
-        <v>0.2203916311264038</v>
+        <v>0.1983680874109268</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B72">
         <v>14</v>
       </c>
       <c r="C72">
-        <v>0.1833948493003845</v>
+        <v>0.1793577075004578</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73">
-        <v>0.1327163577079773</v>
+        <v>0.1420178413391113</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B74">
         <v>16</v>
       </c>
       <c r="C74">
-        <v>0.07152977585792542</v>
+        <v>0.123777836561203</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B75">
         <v>17</v>
       </c>
       <c r="C75">
-        <v>0.005669372621923685</v>
+        <v>0.07660020887851715</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B76">
         <v>18</v>
       </c>
       <c r="C76">
-        <v>0.0004124540428165346</v>
+        <v>0.08762223273515701</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B77">
         <v>19</v>
       </c>
       <c r="C77">
-        <v>0.0001345801720162854</v>
+        <v>0.03292138874530792</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B78">
         <v>20</v>
       </c>
       <c r="C78">
-        <v>0.00028220858075656</v>
+        <v>0.004375936463475227</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B79">
         <v>21</v>
       </c>
       <c r="C79">
-        <v>0.00028220858075656</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B80">
         <v>22</v>
       </c>
       <c r="C80">
-        <v>0.00028220858075656</v>
+        <v>0.0002400244993623346</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B81">
         <v>23</v>
       </c>
       <c r="C81">
-        <v>9.336393850389868E-05</v>
+        <v>0.0002400244993623346</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0.0001261585857719183</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>0.0001261585857719183</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>0.0001261585857719183</v>
+        <v>0.0002150784130208194</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0.0001261585857719183</v>
+        <v>0.0002150784130208194</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>0.0001261585857719183</v>
+        <v>5.278981188894249E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87">
-        <v>0.003337024245411158</v>
+        <v>5.278981188894249E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>0.05398504063487053</v>
+        <v>0.01010019984096289</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B89">
         <v>7</v>
       </c>
       <c r="C89">
-        <v>0.1329316645860672</v>
+        <v>0.06274060159921646</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B90">
         <v>8</v>
       </c>
       <c r="C90">
-        <v>0.2022406905889511</v>
+        <v>0.1433338671922684</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B91">
         <v>9</v>
       </c>
       <c r="C91">
-        <v>0.2483287751674652</v>
+        <v>0.2007525116205215</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B92">
         <v>10</v>
       </c>
       <c r="C92">
-        <v>0.2644711434841156</v>
+        <v>0.2703754901885986</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B93">
         <v>11</v>
       </c>
       <c r="C93">
-        <v>0.2429562360048294</v>
+        <v>0.3087408840656281</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B94">
         <v>12</v>
       </c>
       <c r="C94">
-        <v>0.2109737992286682</v>
+        <v>0.2928367853164673</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B95">
         <v>13</v>
       </c>
       <c r="C95">
-        <v>0.1874537020921707</v>
+        <v>0.2860566079616547</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B96">
         <v>14</v>
       </c>
       <c r="C96">
-        <v>0.1577660590410233</v>
+        <v>0.2853347063064575</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B97">
         <v>15</v>
       </c>
       <c r="C97">
-        <v>0.1127084195613861</v>
+        <v>0.2216521948575974</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B98">
         <v>16</v>
       </c>
       <c r="C98">
-        <v>0.04220247268676758</v>
+        <v>0.1721087247133255</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B99">
         <v>17</v>
       </c>
       <c r="C99">
-        <v>0.004347110632807016</v>
+        <v>0.117632120847702</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B100">
         <v>18</v>
       </c>
       <c r="C100">
-        <v>0.0002287341485498473</v>
+        <v>0.1089031249284744</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B101">
         <v>19</v>
       </c>
       <c r="C101">
-        <v>0.0002287341485498473</v>
+        <v>0.04608816280961037</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B102">
         <v>20</v>
       </c>
       <c r="C102">
-        <v>0.0002558343112468719</v>
+        <v>0.006455851253122091</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B103">
         <v>21</v>
       </c>
       <c r="C103">
-        <v>0.0002413647016510367</v>
+        <v>0.0002743224322330207</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B104">
         <v>22</v>
       </c>
       <c r="C104">
-        <v>0.0002413647016510367</v>
+        <v>0.000270915450528264</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B105">
         <v>23</v>
       </c>
       <c r="C105">
-        <v>0.0002413647016510367</v>
+        <v>0.0002195991983171552</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>-2.792242958093993E-05</v>
+        <v>0.0002150784130208194</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>0.0001695053651928902</v>
+        <v>0.0002150784130208194</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>0.0001695053651928902</v>
+        <v>5.278981188894249E-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>0.0001695053651928902</v>
+        <v>5.278981188894249E-05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110">
-        <v>0.0001695053651928902</v>
+        <v>3.034148903680034E-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>0.001431455602869391</v>
+        <v>0.0001062642695615068</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B112">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>0.01457713730633259</v>
+        <v>0.01201295386999846</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B113">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>0.03427769616246223</v>
+        <v>0.07377108186483383</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B114">
         <v>8</v>
       </c>
       <c r="C114">
-        <v>0.05107865110039711</v>
+        <v>0.1662130057811737</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B115">
         <v>9</v>
       </c>
       <c r="C115">
-        <v>0.0649937242269516</v>
+        <v>0.2099842429161072</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B116">
         <v>10</v>
       </c>
       <c r="C116">
-        <v>0.07558008283376694</v>
+        <v>0.2618904709815979</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B117">
         <v>11</v>
       </c>
       <c r="C117">
-        <v>0.09369896352291107</v>
+        <v>0.2800939083099365</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B118">
         <v>12</v>
       </c>
       <c r="C118">
-        <v>0.09298655390739441</v>
+        <v>0.2698436975479126</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B119">
         <v>13</v>
       </c>
       <c r="C119">
-        <v>0.08629260957241058</v>
+        <v>0.2421651929616928</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B120">
         <v>14</v>
       </c>
       <c r="C120">
-        <v>0.0681799128651619</v>
+        <v>0.2045653760433197</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B121">
         <v>15</v>
       </c>
       <c r="C121">
-        <v>0.04493110999464989</v>
+        <v>0.156298354268074</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B122">
         <v>16</v>
       </c>
       <c r="C122">
-        <v>0.01716763339936733</v>
+        <v>0.1196639910340309</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B123">
         <v>17</v>
       </c>
       <c r="C123">
-        <v>0.0006555606960318983</v>
+        <v>0.105166882276535</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B124">
         <v>18</v>
       </c>
       <c r="C124">
-        <v>0.0001366313081234694</v>
+        <v>0.07615157961845398</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B125">
         <v>19</v>
       </c>
       <c r="C125">
-        <v>0.0002413647016510367</v>
+        <v>0.03315475210547447</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B126">
         <v>20</v>
       </c>
       <c r="C126">
-        <v>0.0002413647016510367</v>
+        <v>0.004364398773759604</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B127">
         <v>21</v>
       </c>
       <c r="C127">
-        <v>0.0002413647016510367</v>
+        <v>0.0001774040429154411</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B128">
         <v>22</v>
       </c>
       <c r="C128">
-        <v>0.0002413647016510367</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B129">
         <v>23</v>
       </c>
       <c r="C129">
-        <v>0.0002413647016510367</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>0.0001261585857719183</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0.0001261585857719183</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132">
-        <v>0.0001261585857719183</v>
+        <v>-1.211711787618697E-05</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133">
-        <v>0.0001261585857719183</v>
+        <v>-1.211711787618697E-05</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>0.0001261585857719183</v>
+        <v>-1.211711787618697E-05</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>0.003728028386831284</v>
+        <v>-1.211711787618697E-05</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>0.05385326966643333</v>
+        <v>0.005955236963927746</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B137">
         <v>7</v>
       </c>
       <c r="C137">
-        <v>0.1460563540458679</v>
+        <v>0.03618372976779938</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B138">
         <v>8</v>
       </c>
       <c r="C138">
-        <v>0.2305580377578735</v>
+        <v>0.06893481314182281</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B139">
         <v>9</v>
       </c>
       <c r="C139">
-        <v>0.2744096517562866</v>
+        <v>0.1064243391156197</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B140">
         <v>10</v>
       </c>
       <c r="C140">
-        <v>0.2949077785015106</v>
+        <v>0.138901486992836</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B141">
         <v>11</v>
       </c>
       <c r="C141">
-        <v>0.2614859640598297</v>
+        <v>0.1608426868915558</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
       <c r="C142">
-        <v>0.2220574766397476</v>
+        <v>0.1768184155225754</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B143">
         <v>13</v>
       </c>
       <c r="C143">
-        <v>0.1954027712345123</v>
+        <v>0.1962957382202148</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B144">
         <v>14</v>
       </c>
       <c r="C144">
-        <v>0.1667006462812424</v>
+        <v>0.1710409671068192</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B145">
         <v>15</v>
       </c>
       <c r="C145">
-        <v>0.08907698094844818</v>
+        <v>0.1480477303266525</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B146">
         <v>16</v>
       </c>
       <c r="C146">
-        <v>0.02925511077046394</v>
+        <v>0.1105521768331528</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B147">
         <v>17</v>
       </c>
       <c r="C147">
-        <v>0.002545971656218171</v>
+        <v>0.1165075972676277</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B148">
         <v>18</v>
       </c>
       <c r="C148">
-        <v>0.0002413647016510367</v>
+        <v>0.09792590141296387</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B149">
         <v>19</v>
       </c>
       <c r="C149">
-        <v>0.0002413647016510367</v>
+        <v>0.04550378769636154</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B150">
         <v>20</v>
       </c>
       <c r="C150">
-        <v>0.0002413647016510367</v>
+        <v>0.008425556123256683</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B151">
         <v>21</v>
       </c>
       <c r="C151">
-        <v>0.0002413647016510367</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B152">
         <v>22</v>
       </c>
       <c r="C152">
-        <v>0.0002413647016510367</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B153">
         <v>23</v>
       </c>
       <c r="C153">
-        <v>0.0002413647016510367</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>7.681096030864865E-05</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>7.681096030864865E-05</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156">
-        <v>6.792657950427383E-05</v>
+        <v>-1.211711787618697E-05</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>0.0001261585857719183</v>
+        <v>-1.211711787618697E-05</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="C158">
-        <v>0.0001261585857719183</v>
+        <v>9.871630027191713E-06</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>0.003119776723906398</v>
+        <v>1.327865538769402E-05</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
       <c r="C160">
-        <v>0.03530989959836006</v>
+        <v>0.01006068848073483</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B161">
         <v>7</v>
       </c>
       <c r="C161">
-        <v>0.102485366165638</v>
+        <v>0.04863173887133598</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B162">
         <v>8</v>
       </c>
       <c r="C162">
-        <v>0.1629041284322739</v>
+        <v>0.1073838025331497</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B163">
         <v>9</v>
       </c>
       <c r="C163">
-        <v>0.2054275274276733</v>
+        <v>0.1547199636697769</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B164">
         <v>10</v>
       </c>
       <c r="C164">
-        <v>0.2588817477226257</v>
+        <v>0.191787526011467</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B165">
         <v>11</v>
       </c>
       <c r="C165">
-        <v>0.2614859640598297</v>
+        <v>0.1960746198892593</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B166">
         <v>12</v>
       </c>
       <c r="C166">
-        <v>0.2216166704893112</v>
+        <v>0.2126932293176651</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B167">
         <v>13</v>
       </c>
       <c r="C167">
-        <v>0.1981286406517029</v>
+        <v>0.2241003513336182</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B168">
         <v>14</v>
       </c>
       <c r="C168">
-        <v>0.1549507677555084</v>
+        <v>0.2024707049131393</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B169">
         <v>15</v>
       </c>
       <c r="C169">
-        <v>0.08281602710485458</v>
+        <v>0.1740968823432922</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B170">
         <v>16</v>
       </c>
       <c r="C170">
-        <v>0.0297673549503088</v>
+        <v>0.1431103497743607</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Ciugud.xlsx
+++ b/Transavia/Production/Results/Results_daily_Ciugud.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0003298412193544209</v>
+        <v>0.0003325073630549014</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0003298412193544209</v>
+        <v>0.0003748009039554745</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.1443001627922058</v>
+        <v>0.3391974866390228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.0914604663848877</v>
+        <v>0.3393812477588654</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.01056172233074903</v>
+        <v>0.323788583278656</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0.0006026824121363461</v>
+        <v>0.3109534382820129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.0006026824121363461</v>
+        <v>0.2674255669116974</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>0.0003790048358496279</v>
+        <v>0.2061122208833694</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>-4.136415373068303E-05</v>
+        <v>0.1143842041492462</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0.0001062642695615068</v>
+        <v>0.1183100268244743</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>0.0001609122118679807</v>
+        <v>0.07879592478275299</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>0.0002419941010884941</v>
+        <v>0.01916487887501717</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>0.0002419941010884941</v>
+        <v>-0.0003878294955939054</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>0.0002419941010884941</v>
+        <v>0.0001569787273183465</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>0.01028940547257662</v>
+        <v>0.0001569787273183465</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08351073414087296</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.1909184902906418</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.246611624956131</v>
+        <v>9.566015069140121E-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>0.3039505779743195</v>
+        <v>9.566015069140121E-05</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0.3355648815631866</v>
+        <v>-1.726176378724631E-05</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0.3417039811611176</v>
+        <v>0.0001825014333007857</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0.3279791474342346</v>
+        <v>0.02770178578794003</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0.3186923563480377</v>
+        <v>0.1119082570075989</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>0.2805593609809875</v>
+        <v>0.2004099637269974</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0.2056873887777328</v>
+        <v>0.2675193846225739</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0.1626182943582535</v>
+        <v>0.3236775994300842</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>0.08412060886621475</v>
+        <v>0.3468219339847565</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>0.05443688109517097</v>
+        <v>0.332903265953064</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>0.006481552496552467</v>
+        <v>0.3039906024932861</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>0.0002195991983171552</v>
+        <v>0.2782751023769379</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>5.731062628910877E-05</v>
+        <v>0.2232801616191864</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>5.731062628910877E-05</v>
+        <v>0.1840530186891556</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>5.278981188894249E-05</v>
+        <v>0.1271265149116516</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>0.0001074377505574375</v>
+        <v>0.1211478039622307</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>0.0001074377505574375</v>
+        <v>0.08973020315170288</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>0.0001074377505574375</v>
+        <v>0.0226120837032795</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>0.0001074377505574375</v>
+        <v>0.0001569787273183465</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>0.0001074377505574375</v>
+        <v>8.45591930556111E-05</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>0.007109914440661669</v>
+        <v>-2.836268686223775E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.06261910498142242</v>
+        <v>2.395451519987546E-05</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.1305042505264282</v>
+        <v>-1.726176378724631E-05</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>0.1875510364770889</v>
+        <v>-1.726176378724631E-05</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0.2086605876684189</v>
+        <v>2.395451519987546E-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0.2264161854982376</v>
+        <v>-5.693934781447751E-07</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>0.2214955687522888</v>
+        <v>0.0002237176086055115</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>0.2138915210962296</v>
+        <v>0.02830876968801022</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>0.1706837564706802</v>
+        <v>0.120280958712101</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>0.1207046881318092</v>
+        <v>0.2079735398292542</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.08856230974197388</v>
+        <v>0.2680844962596893</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>0.06401209533214569</v>
+        <v>0.3254329562187195</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>0.08290190249681473</v>
+        <v>0.3590061962604523</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>0.03164336830377579</v>
+        <v>0.336839884519577</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>0.004304413683712482</v>
+        <v>0.322973370552063</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>0.0002489266626071185</v>
+        <v>0.3221743106842041</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>0.0002489266626071185</v>
+        <v>0.3165664076805115</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>0.0002489266626071185</v>
+        <v>0.2387901544570923</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>0.0001501714432379231</v>
+        <v>0.1921010911464691</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>0.0001501714432379231</v>
+        <v>0.1205796301364899</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>0.0001501714432379231</v>
+        <v>0.1099584773182869</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>0.0001501714432379231</v>
+        <v>0.02772713825106621</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C62">
-        <v>0.0001501714432379231</v>
+        <v>2.24127979890909E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C63">
-        <v>-1.211711787618697E-05</v>
+        <v>2.24127979890909E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C64">
-        <v>0.005430491641163826</v>
+        <v>9.393542859470472E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.03618372976779938</v>
+        <v>0.0001050363862304948</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.06259923428297043</v>
+        <v>0.0001050363862304948</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0.1227940917015076</v>
+        <v>8.051248005358502E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>0.1409341096878052</v>
+        <v>3.971773185185157E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>0.1719927936792374</v>
+        <v>3.971773185185157E-05</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>0.1867503076791763</v>
+        <v>0.0006095832213759422</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>0.1983680874109268</v>
+        <v>0.0379464365541935</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>0.1793577075004578</v>
+        <v>0.127453625202179</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>0.1420178413391113</v>
+        <v>0.2195674180984497</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>0.123777836561203</v>
+        <v>0.2680844962596893</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>0.07660020887851715</v>
+        <v>0.3168967962265015</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>0.08762223273515701</v>
+        <v>0.3406722843647003</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>0.03292138874530792</v>
+        <v>0.3280744552612305</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>0.004375936463475227</v>
+        <v>0.3162082731723785</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>0.0002489266626071185</v>
+        <v>0.3046452105045319</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>0.0002400244993623346</v>
+        <v>0.2706284523010254</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>0.0002400244993623346</v>
+        <v>0.2248298674821854</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>0.0001501714432379231</v>
+        <v>0.1897148042917252</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>0.0001501714432379231</v>
+        <v>0.1431335061788559</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>0.0002150784130208194</v>
+        <v>0.08884038776159286</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>0.0002150784130208194</v>
+        <v>0.02052321285009384</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>5.278981188894249E-05</v>
+        <v>0.0002285013470100239</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C87">
-        <v>5.278981188894249E-05</v>
+        <v>0.0002654202689882368</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C88">
-        <v>0.01010019984096289</v>
+        <v>0.0001031317078741267</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.06274060159921646</v>
+        <v>1.327865538769402E-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>0.1433338671922684</v>
+        <v>5.278981188894249E-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>0.2007525116205215</v>
+        <v>0.0001074377505574375</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>0.2703754901885986</v>
+        <v>0.0001074377505574375</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>0.3087408840656281</v>
+        <v>0.0001074377505574375</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>0.2928367853164673</v>
+        <v>0.0003317248483654112</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>0.2860566079616547</v>
+        <v>0.02717830985784531</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>0.2853347063064575</v>
+        <v>0.09313732385635376</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>0.2216521948575974</v>
+        <v>0.1425382941961288</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>0.1721087247133255</v>
+        <v>0.1942342966794968</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B99">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>0.117632120847702</v>
+        <v>0.2234669476747513</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B100">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>0.1089031249284744</v>
+        <v>0.243527963757515</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>0.04608816280961037</v>
+        <v>0.2400992512702942</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B102">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C102">
-        <v>0.006455851253122091</v>
+        <v>0.2438537776470184</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>0.0002743224322330207</v>
+        <v>0.2491254508495331</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>0.000270915450528264</v>
+        <v>0.224467471241951</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>0.0002195991983171552</v>
+        <v>0.1965425610542297</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>0.0002150784130208194</v>
+        <v>0.1719730496406555</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>0.0002150784130208194</v>
+        <v>0.1217766478657722</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>5.278981188894249E-05</v>
+        <v>0.07738874852657318</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C109">
-        <v>5.278981188894249E-05</v>
+        <v>0.02055660635232925</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C110">
-        <v>3.034148903680034E-05</v>
+        <v>0.0001569787273183465</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>0.0001062642695615068</v>
+        <v>0.0002285013470100239</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C112">
-        <v>0.01201295386999846</v>
+        <v>0.0002285013470100239</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.07377108186483383</v>
+        <v>0.0002150784130208194</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>0.1662130057811737</v>
+        <v>0.0002150784130208194</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>0.2099842429161072</v>
+        <v>5.278981188894249E-05</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>0.2618904709815979</v>
+        <v>5.278981188894249E-05</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>0.2800939083099365</v>
+        <v>5.278981188894249E-05</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>0.2698436975479126</v>
+        <v>0.0002770768769551069</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>0.2421651929616928</v>
+        <v>0.02712365984916687</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>0.2045653760433197</v>
+        <v>0.1011334583163261</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>0.156298354268074</v>
+        <v>0.1664286404848099</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>0.1196639910340309</v>
+        <v>0.1999494582414627</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>0.105166882276535</v>
+        <v>0.2363788187503815</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>0.07615157961845398</v>
+        <v>0.2396766543388367</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>0.03315475210547447</v>
+        <v>0.2406726777553558</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>0.004364398773759604</v>
+        <v>0.2299462258815765</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B127">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>0.0001774040429154411</v>
+        <v>0.2041530609130859</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B128">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>0.0002489266626071185</v>
+        <v>0.1680290848016739</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>0.0002489266626071185</v>
+        <v>0.1196639910340309</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C130">
-        <v>0.0001501714432379231</v>
+        <v>0.105166882276535</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>0.0001501714432379231</v>
+        <v>0.09388823062181473</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C132">
-        <v>-1.211711787618697E-05</v>
+        <v>0.06382650882005692</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>-1.211711787618697E-05</v>
+        <v>0.01858050748705864</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C134">
-        <v>-1.211711787618697E-05</v>
+        <v>0.0001774040429154411</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>-1.211711787618697E-05</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C136">
-        <v>0.005955236963927746</v>
+        <v>0.0002489266626071185</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.03618372976779938</v>
+        <v>0.0001746953494148329</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>0.06893481314182281</v>
+        <v>0.0001501714432379231</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>0.1064243391156197</v>
+        <v>0.0001755672419676557</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>0.138901486992836</v>
+        <v>0.0001755672419676557</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>0.1608426868915558</v>
+        <v>0.0001755672419676557</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B142">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>0.1768184155225754</v>
+        <v>0.0003964472562074661</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B143">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>0.1962957382202148</v>
+        <v>0.02441872656345367</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B144">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <v>0.1710409671068192</v>
+        <v>0.07394381612539291</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B145">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>0.1480477303266525</v>
+        <v>0.1336471140384674</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B146">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>0.1105521768331528</v>
+        <v>0.1921031773090363</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B147">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>0.1165075972676277</v>
+        <v>0.2205667495727539</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B148">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <v>0.09792590141296387</v>
+        <v>0.2400698363780975</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>0.04550378769636154</v>
+        <v>0.253326803445816</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>0.008425556123256683</v>
+        <v>0.2436802983283997</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B151">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>0.0002489266626071185</v>
+        <v>0.2417141944169998</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B152">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>0.0002489266626071185</v>
+        <v>0.2111572027206421</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B153">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C153">
-        <v>0.0002489266626071185</v>
+        <v>0.1670849025249481</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C154">
-        <v>0.0001501714432379231</v>
+        <v>0.1308715641498566</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>0.0001501714432379231</v>
+        <v>0.09208878874778748</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C156">
-        <v>-1.211711787618697E-05</v>
+        <v>0.07246053218841553</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>-1.211711787618697E-05</v>
+        <v>0.01916487887501717</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C158">
-        <v>9.871630027191713E-06</v>
+        <v>-0.0003878294955939054</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C159">
-        <v>1.327865538769402E-05</v>
+        <v>0.0001569787273183465</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>0.01006068848073483</v>
+        <v>0.0002285013470100239</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.04863173887133598</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>0.1073838025331497</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>0.1547199636697769</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>0.191787526011467</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B165">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>0.1960746198892593</v>
+        <v>0.0002150784130208194</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B166">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>0.2126932293176651</v>
+        <v>0.0006373152718879282</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B167">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>0.2241003513336182</v>
+        <v>0.02672018855810165</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B168">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>0.2024707049131393</v>
+        <v>0.1006932258605957</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B169">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>0.1740968823432922</v>
+        <v>0.1649669855833054</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B170">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>0.1431103497743607</v>
+        <v>0.2260266542434692</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Ciugud.xlsx
+++ b/Transavia/Production/Results/Results_daily_Ciugud.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.0003325073630549014</v>
+        <v>0.0002668727829586715</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.0003748009039554745</v>
+        <v>0.0003325073630549014</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.3391974866390228</v>
+        <v>0.2648947536945343</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.3393812477588654</v>
+        <v>0.3087421655654907</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.323788583278656</v>
+        <v>0.3379668593406677</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.3109534382820129</v>
+        <v>0.3341384828090668</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.2674255669116974</v>
+        <v>0.3193267583847046</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.2061122208833694</v>
+        <v>0.31169193983078</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>0.1143842041492462</v>
+        <v>0.2951627969741821</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.1183100268244743</v>
+        <v>0.2422835677862167</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.07879592478275299</v>
+        <v>0.1868152171373367</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.01916487887501717</v>
+        <v>0.1064927577972412</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.0003878294955939054</v>
+        <v>0.09425985068082809</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0.0001569787273183465</v>
+        <v>0.03408302366733551</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>0.0001569787273183465</v>
+        <v>0.001089186756871641</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>0.0002396022900938988</v>
+        <v>-6.791258056182414E-05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>0.0002396022900938988</v>
+        <v>-6.791258056182414E-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>9.566015069140121E-05</v>
+        <v>-9.03630570974201E-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>9.566015069140121E-05</v>
+        <v>-9.281180609832518E-06</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>-1.726176378724631E-05</v>
+        <v>0.0001480838982388377</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0.0001825014333007857</v>
+        <v>0.0001480838982388377</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0.02770178578794003</v>
+        <v>0.0001480838982388377</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>0.1119082570075989</v>
+        <v>0.0008348786504939198</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>0.2004099637269974</v>
+        <v>0.03718990832567215</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>0.2675193846225739</v>
+        <v>0.1236515566706657</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>0.3236775994300842</v>
+        <v>0.2028597891330719</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>0.3468219339847565</v>
+        <v>0.2627995908260345</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>0.332903265953064</v>
+        <v>0.312704861164093</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>0.3039906024932861</v>
+        <v>0.3354771733283997</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>0.2782751023769379</v>
+        <v>0.3336235582828522</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>0.2232801616191864</v>
+        <v>0.3190118968486786</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>0.1840530186891556</v>
+        <v>0.3151858747005463</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>0.1271265149116516</v>
+        <v>0.2991250455379486</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>0.1211478039622307</v>
+        <v>0.2424368560314178</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>0.08973020315170288</v>
+        <v>0.1862100064754486</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0.0226120837032795</v>
+        <v>0.1034642606973648</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>0.0001569787273183465</v>
+        <v>0.09533266723155975</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>8.45591930556111E-05</v>
+        <v>0.0332803875207901</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>-2.836268686223775E-05</v>
+        <v>-1.242202597495634E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>2.395451519987546E-05</v>
+        <v>-0.0003874365356750786</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>-1.726176378724631E-05</v>
+        <v>0.0005688919336535037</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>-1.726176378724631E-05</v>
+        <v>0.0005909791216254234</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>2.395451519987546E-05</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>-5.693934781447751E-07</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>0.0002237176086055115</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>0.02830876968801022</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>0.120280958712101</v>
+        <v>0.0005531444330699742</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>0.2079735398292542</v>
+        <v>0.02721544727683067</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>0.2680844962596893</v>
+        <v>0.1087944805622101</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>0.3254329562187195</v>
+        <v>0.19118632376194</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>0.3590061962604523</v>
+        <v>0.2583509981632233</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>0.336839884519577</v>
+        <v>0.3022304475307465</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>0.322973370552063</v>
+        <v>0.3244161903858185</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>0.3221743106842041</v>
+        <v>0.3282375335693359</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>0.3165664076805115</v>
+        <v>0.308084100484848</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57">
-        <v>0.2387901544570923</v>
+        <v>0.2879491150379181</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>0.1921010911464691</v>
+        <v>0.2609406113624573</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>0.1205796301364899</v>
+        <v>0.2179675251245499</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>0.1099584773182869</v>
+        <v>0.150703638792038</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>0.02772713825106621</v>
+        <v>0.1016505211591721</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>2.24127979890909E-05</v>
+        <v>0.08676796406507492</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>2.24127979890909E-05</v>
+        <v>0.0332803875207901</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>9.393542859470472E-05</v>
+        <v>0.0007015404989942908</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>0.0001050363862304948</v>
+        <v>-6.791258056182414E-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>0.0001050363862304948</v>
+        <v>-6.791258056182414E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>8.051248005358502E-05</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>3.971773185185157E-05</v>
+        <v>-9.03630570974201E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>3.971773185185157E-05</v>
+        <v>-9.03630570974201E-05</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>0.0006095832213759422</v>
+        <v>6.700201629428193E-05</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>0.0379464365541935</v>
+        <v>6.700201629428193E-05</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>0.127453625202179</v>
+        <v>0.0007537968340329826</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>0.2195674180984497</v>
+        <v>0.03710882738232613</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>0.2680844962596893</v>
+        <v>0.1156279146671295</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>0.3168967962265015</v>
+        <v>0.1946479231119156</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>0.3406722843647003</v>
+        <v>0.2627995908260345</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>0.3280744552612305</v>
+        <v>0.3056575059890747</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>0.3162082731723785</v>
+        <v>0.3318667709827423</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>0.3046452105045319</v>
+        <v>0.3284536004066467</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>0.2706284523010254</v>
+        <v>0.3145216405391693</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>0.2248298674821854</v>
+        <v>0.3068116009235382</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>0.1897148042917252</v>
+        <v>0.2832940816879272</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>0.1431335061788559</v>
+        <v>0.2355321943759918</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>0.08884038776159286</v>
+        <v>0.1738503277301788</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>0.02052321285009384</v>
+        <v>0.1017130464315414</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>0.0002285013470100239</v>
+        <v>0.0910051241517067</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>0.0002654202689882368</v>
+        <v>0.03100715391337872</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B88">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>0.0001031317078741267</v>
+        <v>-0.0008150548674166203</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C89">
-        <v>1.327865538769402E-05</v>
+        <v>-0.0003874365356750786</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>5.278981188894249E-05</v>
+        <v>-0.0003874365356750786</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.0001074377505574375</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>0.0001074377505574375</v>
+        <v>0.0005909791216254234</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>0.0001074377505574375</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>0.0003317248483654112</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>0.02717830985784531</v>
+        <v>3.525653664837591E-05</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>0.09313732385635376</v>
+        <v>0.0006342263077385724</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>0.1425382941961288</v>
+        <v>0.03700832650065422</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>0.1942342966794968</v>
+        <v>0.1165561899542809</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>0.2234669476747513</v>
+        <v>0.19118632376194</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>0.243527963757515</v>
+        <v>0.2602411508560181</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>0.2400992512702942</v>
+        <v>0.2999543249607086</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>0.2438537776470184</v>
+        <v>0.3229856789112091</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C103">
-        <v>0.2491254508495331</v>
+        <v>0.3273255527019501</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104">
-        <v>0.224467471241951</v>
+        <v>0.316826730966568</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105">
-        <v>0.1965425610542297</v>
+        <v>0.3074976205825806</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>0.1719730496406555</v>
+        <v>0.2772199213504791</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>0.1217766478657722</v>
+        <v>0.2161193042993546</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C108">
-        <v>0.07738874852657318</v>
+        <v>0.1491924524307251</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B109">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>0.02055660635232925</v>
+        <v>0.09208405762910843</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C110">
-        <v>0.0001569787273183465</v>
+        <v>0.05837381258606911</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>0.0002285013470100239</v>
+        <v>0.01870098896324635</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C112">
-        <v>0.0002285013470100239</v>
+        <v>-3.299403397249989E-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C113">
-        <v>0.0002150784130208194</v>
+        <v>0.0003088484518229961</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C114">
-        <v>0.0002150784130208194</v>
+        <v>-5.910069739911705E-05</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>5.278981188894249E-05</v>
+        <v>-3.701345121953636E-05</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>5.278981188894249E-05</v>
+        <v>-3.701345121953636E-05</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>5.278981188894249E-05</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>0.0002770768769551069</v>
+        <v>-9.281180609832518E-06</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>0.02712365984916687</v>
+        <v>-9.281180609832518E-06</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>0.1011334583163261</v>
+        <v>0.0006342263077385724</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121">
-        <v>0.1664286404848099</v>
+        <v>0.03700832650065422</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>0.1999494582414627</v>
+        <v>0.112518385052681</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>0.2363788187503815</v>
+        <v>0.19118632376194</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>0.2396766543388367</v>
+        <v>0.2594632804393768</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C125">
-        <v>0.2406726777553558</v>
+        <v>0.3033076822757721</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126">
-        <v>0.2299462258815765</v>
+        <v>0.3244161903858185</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C127">
-        <v>0.2041530609130859</v>
+        <v>0.3212643265724182</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C128">
-        <v>0.1680290848016739</v>
+        <v>0.2945206165313721</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>0.1196639910340309</v>
+        <v>0.2532672584056854</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130">
-        <v>0.105166882276535</v>
+        <v>0.1942060589790344</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131">
-        <v>0.09388823062181473</v>
+        <v>0.1381801962852478</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C132">
-        <v>0.06382650882005692</v>
+        <v>0.1032142490148544</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C133">
-        <v>0.01858050748705864</v>
+        <v>0.08097250759601593</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134">
-        <v>0.0001774040429154411</v>
+        <v>0.07150858640670776</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C135">
-        <v>0.0002489266626071185</v>
+        <v>0.02509656175971031</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C136">
-        <v>0.0002489266626071185</v>
+        <v>0.0004092000308446586</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C137">
-        <v>0.0001746953494148329</v>
+        <v>-8.569909550715238E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C138">
-        <v>0.0001501714432379231</v>
+        <v>-0.0001036383328028023</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0.0001755672419676557</v>
+        <v>-8.155114483088255E-05</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>0.0001755672419676557</v>
+        <v>-8.155114483088255E-05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>0.0001755672419676557</v>
+        <v>-8.155114483088255E-05</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>0.0003964472562074661</v>
+        <v>-9.946202044375241E-05</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>0.02441872656345367</v>
+        <v>-9.946202044375241E-05</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>0.07394381612539291</v>
+        <v>0.0004945086548104882</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>0.1336471140384674</v>
+        <v>0.02715681120753288</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C146">
-        <v>0.1921031773090363</v>
+        <v>0.1164467036724091</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>0.2205667495727539</v>
+        <v>0.1908307671546936</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>0.2400698363780975</v>
+        <v>0.2594632804393768</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C149">
-        <v>0.253326803445816</v>
+        <v>0.3022522032260895</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150">
-        <v>0.2436802983283997</v>
+        <v>0.3282984793186188</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C151">
-        <v>0.2417141944169998</v>
+        <v>0.3282375335693359</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C152">
-        <v>0.2111572027206421</v>
+        <v>0.314129650592804</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C153">
-        <v>0.1670849025249481</v>
+        <v>0.3059799373149872</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C154">
-        <v>0.1308715641498566</v>
+        <v>0.2836954891681671</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C155">
-        <v>0.09208878874778748</v>
+        <v>0.2359336167573929</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156">
-        <v>0.07246053218841553</v>
+        <v>0.1779517531394958</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C157">
-        <v>0.01916487887501717</v>
+        <v>0.1014163345098495</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C158">
-        <v>-0.0003878294955939054</v>
+        <v>0.09966443479061127</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C159">
-        <v>0.0001569787273183465</v>
+        <v>0.03206797316670418</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C160">
-        <v>0.0002285013470100239</v>
+        <v>-1.242202597495634E-05</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C161">
-        <v>0.0002396022900938988</v>
+        <v>0.0003088484518229961</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C162">
-        <v>0.0002396022900938988</v>
+        <v>-5.910069739911705E-05</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>0.0002396022900938988</v>
+        <v>-5.492430864251219E-05</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>0.0002396022900938988</v>
+        <v>-0.0001044611271936446</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165">
-        <v>0.0002150784130208194</v>
+        <v>-9.03630570974201E-05</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>0.0006373152718879282</v>
+        <v>-9.03630570974201E-05</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>0.02672018855810165</v>
+        <v>-9.03630570974201E-05</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>0.1006932258605957</v>
+        <v>0.0005531444330699742</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>0.1649669855833054</v>
+        <v>0.03371951729059219</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C170">
-        <v>0.2260266542434692</v>
+        <v>0.112518385052681</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Ciugud.xlsx
+++ b/Transavia/Production/Results/Results_daily_Ciugud.xlsx
@@ -377,1803 +377,1803 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.0002668727829586715</v>
+        <v>0.0003748009039554745</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.0003325073630549014</v>
+        <v>0.0003748009039554745</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.2648947536945343</v>
+        <v>0.2496679276227951</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.3087421655654907</v>
+        <v>0.228323757648468</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.3379668593406677</v>
+        <v>0.1943732500076294</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.3341384828090668</v>
+        <v>0.1406837701797485</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.3193267583847046</v>
+        <v>0.09914704412221909</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.31169193983078</v>
+        <v>0.09077919274568558</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.2951627969741821</v>
+        <v>0.07403358072042465</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.2422835677862167</v>
+        <v>0.05820368230342865</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0.1868152171373367</v>
+        <v>0.01188386790454388</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.1064927577972412</v>
+        <v>-0.001115075312554836</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.09425985068082809</v>
+        <v>-0.0004080085200257599</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.03408302366733551</v>
+        <v>-0.0003874365356750786</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.001089186756871641</v>
+        <v>0.0003103635972365737</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>-6.791258056182414E-05</v>
+        <v>-3.701345121953636E-05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>-6.791258056182414E-05</v>
+        <v>-8.155114483088255E-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>-9.03630570974201E-05</v>
+        <v>-8.155114483088255E-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>-9.281180609832518E-06</v>
+        <v>-8.155114483088255E-05</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.0001480838982388377</v>
+        <v>7.581390673294663E-05</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.0001480838982388377</v>
+        <v>0.006750845815986395</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.0001480838982388377</v>
+        <v>0.05272799730300903</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.0008348786504939198</v>
+        <v>0.1141855418682098</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.03718990832567215</v>
+        <v>0.1825963854789734</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.1236515566706657</v>
+        <v>0.2180931270122528</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.2028597891330719</v>
+        <v>0.2403201013803482</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0.2627995908260345</v>
+        <v>0.2513986527919769</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.312704861164093</v>
+        <v>0.2407443672418594</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>0.3354771733283997</v>
+        <v>0.2359342128038406</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.3336235582828522</v>
+        <v>0.2174444943666458</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.3190118968486786</v>
+        <v>0.1944721788167953</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.3151858747005463</v>
+        <v>0.1045623794198036</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>0.2991250455379486</v>
+        <v>0.08148561418056488</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0.2424368560314178</v>
+        <v>0.0717359185218811</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>0.1862100064754486</v>
+        <v>0.01374732609838247</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>0.1034642606973648</v>
+        <v>0.0003088484518229961</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.09533266723155975</v>
+        <v>-0.0001265483588213101</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>0.0332803875207901</v>
+        <v>-0.0001710860378807411</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>-1.242202597495634E-05</v>
+        <v>5.790302748209797E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>-0.0003874365356750786</v>
+        <v>-4.005479422630742E-05</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B42">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.0005688919336535037</v>
+        <v>0.0001453418517485261</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.0005909791216254234</v>
+        <v>0.0001453418517485261</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>-4.582531619234942E-05</v>
+        <v>0.0001031727224471979</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>-4.582531619234942E-05</v>
+        <v>0.0001031727224471979</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>-4.582531619234942E-05</v>
+        <v>0.003002212382853031</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>-4.582531619234942E-05</v>
+        <v>0.03385749459266663</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.0005531444330699742</v>
+        <v>0.08275514096021652</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.02721544727683067</v>
+        <v>0.1183594539761543</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.1087944805622101</v>
+        <v>0.1805766373872757</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>0.19118632376194</v>
+        <v>0.2011657506227493</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0.2583509981632233</v>
+        <v>0.208104133605957</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>0.3022304475307465</v>
+        <v>0.2185744345188141</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>0.3244161903858185</v>
+        <v>0.1957009434700012</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>0.3282375335693359</v>
+        <v>0.1520030647516251</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>0.308084100484848</v>
+        <v>0.1430105715990067</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>0.2879491150379181</v>
+        <v>0.11153594404459</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0.2609406113624573</v>
+        <v>0.08252789080142975</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>0.2179675251245499</v>
+        <v>0.07293006032705307</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0.150703638792038</v>
+        <v>0.01266623474657536</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>0.1016505211591721</v>
+        <v>-0.0001110948651330546</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.08676796406507492</v>
+        <v>-0.0001288811763515696</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.0332803875207901</v>
+        <v>-0.000233614569879137</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.0007015404989942908</v>
+        <v>0.000142572695040144</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>-6.791258056182414E-05</v>
+        <v>7.006307714618742E-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>-6.791258056182414E-05</v>
+        <v>-0.0001335453125648201</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>-4.582531619234942E-05</v>
+        <v>2.318216502317227E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>-9.03630570974201E-05</v>
+        <v>0.0001038873742800206</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>-9.03630570974201E-05</v>
+        <v>-4.005479422630742E-05</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>6.700201629428193E-05</v>
+        <v>0.006759576965123415</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>6.700201629428193E-05</v>
+        <v>0.06331053376197815</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0.0007537968340329826</v>
+        <v>0.1474975496530533</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.03710882738232613</v>
+        <v>0.2206446975469589</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.1156279146671295</v>
+        <v>0.2794889807701111</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.1946479231119156</v>
+        <v>0.3032473027706146</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>0.2627995908260345</v>
+        <v>0.305019348859787</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>0.3056575059890747</v>
+        <v>0.2804129421710968</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>0.3318667709827423</v>
+        <v>0.2540721893310547</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>0.3284536004066467</v>
+        <v>0.2065007388591766</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.3145216405391693</v>
+        <v>0.1476040780544281</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>0.3068116009235382</v>
+        <v>0.1030904501676559</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0.2832940816879272</v>
+        <v>0.08509321510791779</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>0.2355321943759918</v>
+        <v>0.03647082298994064</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>0.1738503277301788</v>
+        <v>0.007107000332325697</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>0.1017130464315414</v>
+        <v>6.226283585419878E-05</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>0.0910051241517067</v>
+        <v>6.226283585419878E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>0.03100715391337872</v>
+        <v>6.226283585419878E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B88">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>-0.0008150548674166203</v>
+        <v>-0.0001069470090442337</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B89">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>-0.0003874365356750786</v>
+        <v>3.89804263249971E-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>-0.0003874365356750786</v>
+        <v>-2.213608922829735E-06</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.001035457593388855</v>
+        <v>3.89804263249971E-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.0005909791216254234</v>
+        <v>8.043488924158737E-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>-4.582531619234942E-05</v>
+        <v>0.0001031727224471979</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>-4.582531619234942E-05</v>
+        <v>0.005677347537130117</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>3.525653664837591E-05</v>
+        <v>0.04410195723176003</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.0006342263077385724</v>
+        <v>0.1081467568874359</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.03700832650065422</v>
+        <v>0.1837228834629059</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.1165561899542809</v>
+        <v>0.2552575469017029</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.19118632376194</v>
+        <v>0.2721281349658966</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>0.2602411508560181</v>
+        <v>0.26936274766922</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>0.2999543249607086</v>
+        <v>0.2396888732910156</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>0.3229856789112091</v>
+        <v>0.2005831748247147</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>0.3273255527019501</v>
+        <v>0.1682707816362381</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>0.316826730966568</v>
+        <v>0.1487275063991547</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0.3074976205825806</v>
+        <v>0.1075272783637047</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>0.2772199213504791</v>
+        <v>0.07513651996850967</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0.2161193042993546</v>
+        <v>0.06584615260362625</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B108">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>0.1491924524307251</v>
+        <v>0.01422094274312258</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>0.09208405762910843</v>
+        <v>-0.0001036383328028023</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>0.05837381258606911</v>
+        <v>5.495809818967246E-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>0.01870098896324635</v>
+        <v>0.0002169640210922807</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B112">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>-3.299403397249989E-05</v>
+        <v>0.0001038873742800206</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.0003088484518229961</v>
+        <v>0.0001453418517485261</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B114">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>-5.910069739911705E-05</v>
+        <v>0.0001453418517485261</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>-3.701345121953636E-05</v>
+        <v>2.413751280982979E-05</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>-3.701345121953636E-05</v>
+        <v>-8.878437802195549E-05</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>-4.582531619234942E-05</v>
+        <v>-4.756812631967478E-05</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>-9.281180609832518E-06</v>
+        <v>0.01014096662402153</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>-9.281180609832518E-06</v>
+        <v>0.06902877986431122</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.0006342263077385724</v>
+        <v>0.1474975496530533</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.03700832650065422</v>
+        <v>0.2235717922449112</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.112518385052681</v>
+        <v>0.2828028798103333</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>0.19118632376194</v>
+        <v>0.3142214715480804</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>0.2594632804393768</v>
+        <v>0.3163679838180542</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>0.3033076822757721</v>
+        <v>0.3094885349273682</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>0.3244161903858185</v>
+        <v>0.2997232973575592</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>0.3212643265724182</v>
+        <v>0.2708613872528076</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>0.2945206165313721</v>
+        <v>0.2245060056447983</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0.2532672584056854</v>
+        <v>0.1364206224679947</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B130">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>0.1942060589790344</v>
+        <v>0.104609303176403</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>0.1381801962852478</v>
+        <v>0.0717359185218811</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B132">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>0.1032142490148544</v>
+        <v>0.01541740540415049</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B133">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>0.08097250759601593</v>
+        <v>0.0003088484518229961</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B134">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>0.07150858640670776</v>
+        <v>-5.910069739911705E-05</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B135">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>0.02509656175971031</v>
+        <v>-5.910069739911705E-05</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B136">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.0004092000308446586</v>
+        <v>-3.701345121953636E-05</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B137">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>-8.569909550715238E-05</v>
+        <v>-8.155114483088255E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B138">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>-0.0001036383328028023</v>
+        <v>-8.155114483088255E-05</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>-8.155114483088255E-05</v>
+        <v>7.581390673294663E-05</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>-8.155114483088255E-05</v>
+        <v>5.790302748209797E-05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>-8.155114483088255E-05</v>
+        <v>-0.0001529766886960715</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>-9.946202044375241E-05</v>
+        <v>0.005182165652513504</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>-9.946202044375241E-05</v>
+        <v>0.05885244905948639</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.0004945086548104882</v>
+        <v>0.1394322365522385</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.02715681120753288</v>
+        <v>0.2101185768842697</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.1164467036724091</v>
+        <v>0.2794889807701111</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>0.1908307671546936</v>
+        <v>0.3032473027706146</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>0.2594632804393768</v>
+        <v>0.3134060800075531</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>0.3022522032260895</v>
+        <v>0.3057145774364471</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>0.3282984793186188</v>
+        <v>0.2971291840076447</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>0.3282375335693359</v>
+        <v>0.2621155381202698</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B152">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>0.314129650592804</v>
+        <v>0.2233768254518509</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B153">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0.3059799373149872</v>
+        <v>0.1461875736713409</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B154">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>0.2836954891681671</v>
+        <v>0.1115059778094292</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>0.2359336167573929</v>
+        <v>0.07485850900411606</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B156">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>0.1779517531394958</v>
+        <v>0.01598526164889336</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B157">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>0.1014163345098495</v>
+        <v>-0.0007591397152282298</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B158">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>0.09966443479061127</v>
+        <v>-5.207273352425545E-05</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B159">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.03206797316670418</v>
+        <v>-5.207273352425545E-05</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B160">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>-1.242202597495634E-05</v>
+        <v>0.0006720609380863607</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B161">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.0003088484518229961</v>
+        <v>3.525653664837591E-05</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B162">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>-5.910069739911705E-05</v>
+        <v>3.525653664837591E-05</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>-5.492430864251219E-05</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>-0.0001044611271936446</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C165">
         <v>-9.03630570974201E-05</v>
@@ -2181,57 +2181,57 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>-9.03630570974201E-05</v>
+        <v>0.004999055992811918</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>-9.03630570974201E-05</v>
+        <v>0.06086047738790512</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.0005531444330699742</v>
+        <v>0.1394797414541245</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.03371951729059219</v>
+        <v>0.209879457950592</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.112518385052681</v>
+        <v>0.2786152064800262</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Ciugud.xlsx
+++ b/Transavia/Production/Results/Results_daily_Ciugud.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>0.0003748009039554745</v>
+        <v>-0.0004229428595863283</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>0.0003748009039554745</v>
+        <v>-0.0004229428595863283</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0.2496679276227951</v>
+        <v>-0.0004229428595863283</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>0.228323757648468</v>
+        <v>0.2830176949501038</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0.1943732500076294</v>
+        <v>0.3107533752918243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.1406837701797485</v>
+        <v>0.3079507648944855</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>0.09914704412221909</v>
+        <v>0.2886452674865723</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.09077919274568558</v>
+        <v>0.250437468290329</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>0.07403358072042465</v>
+        <v>0.2234970927238464</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0.05820368230342865</v>
+        <v>0.1507267951965332</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0.01188386790454388</v>
+        <v>0.1181305572390556</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>-0.001115075312554836</v>
+        <v>0.08735806494951248</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.0004080085200257599</v>
+        <v>0.01073104050010443</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>-0.0003874365356750786</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0.0003103635972365737</v>
+        <v>-4.582531619234942E-05</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>-3.701345121953636E-05</v>
+        <v>-9.03630570974201E-05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>-8.155114483088255E-05</v>
+        <v>-9.03630570974201E-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>-8.155114483088255E-05</v>
+        <v>-9.03630570974201E-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>-8.155114483088255E-05</v>
+        <v>-0.0001241803984157741</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>7.581390673294663E-05</v>
+        <v>-3.384155934327282E-05</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0.006750845815986395</v>
+        <v>-0.0001469694107072428</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>0.05272799730300903</v>
+        <v>-0.0001469694107072428</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0.1141855418682098</v>
+        <v>0.007899684831500053</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>0.1825963854789734</v>
+        <v>0.06111196056008339</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>0.2180931270122528</v>
+        <v>0.1313419342041016</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>0.2403201013803482</v>
+        <v>0.1960628181695938</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>0.2513986527919769</v>
+        <v>0.2270810008049011</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>0.2407443672418594</v>
+        <v>0.28036168217659</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>0.2359342128038406</v>
+        <v>0.3040072917938232</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>0.2174444943666458</v>
+        <v>0.3074166774749756</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>0.1944721788167953</v>
+        <v>0.2831159830093384</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>0.1045623794198036</v>
+        <v>0.2269439399242401</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>0.08148561418056488</v>
+        <v>0.1922606974840164</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>0.0717359185218811</v>
+        <v>0.1479199379682541</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>0.01374732609838247</v>
+        <v>0.09199400991201401</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>0.0003088484518229961</v>
+        <v>0.05802480131387711</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>-0.0001265483588213101</v>
+        <v>0.008566169068217278</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>-0.0001710860378807411</v>
+        <v>0.0007646805024705827</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>5.790302748209797E-05</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>-4.005479422630742E-05</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0.0001453418517485261</v>
+        <v>0.000330935581587255</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0.0001453418517485261</v>
+        <v>-3.701345121953636E-05</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0.0001031727224471979</v>
+        <v>-0.00022819587320555</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.0001031727224471979</v>
+        <v>-0.00022819587320555</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0.003002212382853031</v>
+        <v>-0.0005162121378816664</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.03385749459266663</v>
+        <v>-0.0005416079657152295</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>0.08275514096021652</v>
+        <v>0.002778078662231565</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>0.1183594539761543</v>
+        <v>0.03593431785702705</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>0.1805766373872757</v>
+        <v>0.08470408618450165</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>0.2011657506227493</v>
+        <v>0.1341877579689026</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>0.208104133605957</v>
+        <v>0.1665714234113693</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>0.2185744345188141</v>
+        <v>0.1758428066968918</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>0.1957009434700012</v>
+        <v>0.2018314898014069</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>0.1520030647516251</v>
+        <v>0.2053684592247009</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>0.1430105715990067</v>
+        <v>0.2002034485340118</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>0.11153594404459</v>
+        <v>0.1770985126495361</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>0.08252789080142975</v>
+        <v>0.1384056210517883</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>0.07293006032705307</v>
+        <v>0.09564869105815887</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>0.01266623474657536</v>
+        <v>0.06910285353660583</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>-0.0001110948651330546</v>
+        <v>0.05820368230342865</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>-0.0001288811763515696</v>
+        <v>0.005759898573160172</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>-0.000233614569879137</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>0.000142572695040144</v>
+        <v>0.000330935581587255</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>7.006307714618742E-05</v>
+        <v>-3.701345121953636E-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>-0.0001335453125648201</v>
+        <v>-6.361184932757169E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>2.318216502317227E-05</v>
+        <v>-0.0001081495283870026</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0.0001038873742800206</v>
+        <v>-0.0002727335959207267</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>-4.005479422630742E-05</v>
+        <v>-0.0001061115472111851</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>0.006759576965123415</v>
+        <v>-0.0001744093606248498</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.06331053376197815</v>
+        <v>-0.0001744093606248498</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.1474975496530533</v>
+        <v>0.006116069387644529</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>0.2206446975469589</v>
+        <v>0.05127773433923721</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>0.2794889807701111</v>
+        <v>0.1160082370042801</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>0.3032473027706146</v>
+        <v>0.1877787560224533</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>0.305019348859787</v>
+        <v>0.2270810008049011</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>0.2804129421710968</v>
+        <v>0.2703636586666107</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0.2540721893310547</v>
+        <v>0.2840268611907959</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>0.2065007388591766</v>
+        <v>0.2739859223365784</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>0.1476040780544281</v>
+        <v>0.2700041532516479</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C81">
-        <v>0.1030904501676559</v>
+        <v>0.2392075210809708</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>0.08509321510791779</v>
+        <v>0.1926302760839462</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>0.03647082298994064</v>
+        <v>0.1405275166034698</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C84">
-        <v>0.007107000332325697</v>
+        <v>0.09033358097076416</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>6.226283585419878E-05</v>
+        <v>0.05143506079912186</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>6.226283585419878E-05</v>
+        <v>0.005759898573160172</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>6.226283585419878E-05</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>-0.0001069470090442337</v>
+        <v>0.000330935581587255</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>3.89804263249971E-05</v>
+        <v>-5.492430864251219E-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>-2.213608922829735E-06</v>
+        <v>-5.492430864251219E-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>3.89804263249971E-05</v>
+        <v>-5.492430864251219E-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>8.043488924158737E-05</v>
+        <v>-0.0002461067342665046</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>0.0001031727224471979</v>
+        <v>-0.0002906444715335965</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.005677347537130117</v>
+        <v>-0.0006015991675667465</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>0.04410195723176003</v>
+        <v>-0.0005429633310995996</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0.1081467568874359</v>
+        <v>0.005731027573347092</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>0.1837228834629059</v>
+        <v>0.05888532847166061</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>0.2552575469017029</v>
+        <v>0.1229105740785599</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>0.2721281349658966</v>
+        <v>0.187768891453743</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>0.26936274766922</v>
+        <v>0.2278589010238647</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>0.2396888732910156</v>
+        <v>0.2652883231639862</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>0.2005831748247147</v>
+        <v>0.2805789411067963</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>0.1682707816362381</v>
+        <v>0.2820421755313873</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>0.1487275063991547</v>
+        <v>0.2214523702859879</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>0.1075272783637047</v>
+        <v>0.1821226626634598</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>0.07513651996850967</v>
+        <v>0.1526515781879425</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>0.06584615260362625</v>
+        <v>0.09710639715194702</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C108">
-        <v>0.01422094274312258</v>
+        <v>0.06817863136529922</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C109">
-        <v>-0.0001036383328028023</v>
+        <v>0.04055891558527946</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>5.495809818967246E-05</v>
+        <v>0.003643800970166922</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>0.0002169640210922807</v>
+        <v>0.0007646805024705827</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>0.0001038873742800206</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.0001453418517485261</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>0.0001453418517485261</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>2.413751280982979E-05</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>-8.878437802195549E-05</v>
+        <v>0.0001397532178089023</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>-4.756812631967478E-05</v>
+        <v>-0.0002956435782834888</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0.01014096662402153</v>
+        <v>-0.0004984256229363382</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>0.06902877986431122</v>
+        <v>-0.0004984256229363382</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>0.1474975496530533</v>
+        <v>0.005731027573347092</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>0.2235717922449112</v>
+        <v>0.05896306782960892</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>0.2828028798103333</v>
+        <v>0.1229105740785599</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>0.3142214715480804</v>
+        <v>0.187768891453743</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>0.3163679838180542</v>
+        <v>0.2243244051933289</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>0.3094885349273682</v>
+        <v>0.2627140581607819</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>0.2997232973575592</v>
+        <v>0.2931208610534668</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>0.2708613872528076</v>
+        <v>0.3062301278114319</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>0.2245060056447983</v>
+        <v>0.2961868345737457</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C129">
-        <v>0.1364206224679947</v>
+        <v>0.2680515348911285</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C130">
-        <v>0.104609303176403</v>
+        <v>0.2296494543552399</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C131">
-        <v>0.0717359185218811</v>
+        <v>0.1460238099098206</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>0.01541740540415049</v>
+        <v>0.1080483719706535</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C133">
-        <v>0.0003088484518229961</v>
+        <v>0.06762324273586273</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B134">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>-5.910069739911705E-05</v>
+        <v>0.00877755880355835</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B135">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>-5.910069739911705E-05</v>
+        <v>0.002342055784538388</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>-3.701345121953636E-05</v>
+        <v>0.0007646805024705827</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>-8.155114483088255E-05</v>
+        <v>0.0007646805024705827</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138">
-        <v>-8.155114483088255E-05</v>
+        <v>0.0007646805024705827</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C139">
-        <v>7.581390673294663E-05</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>5.790302748209797E-05</v>
+        <v>0.0008442752878181636</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>-0.0001529766886960715</v>
+        <v>0.0008442752878181636</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>0.005182165652513504</v>
+        <v>0.0001383787312079221</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>0.05885244905948639</v>
+        <v>-0.0004984256229363382</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>0.1394322365522385</v>
+        <v>0.006448914296925068</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>0.2101185768842697</v>
+        <v>0.0628519207239151</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>0.2794889807701111</v>
+        <v>0.1229105740785599</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147">
-        <v>0.3032473027706146</v>
+        <v>0.1885467916727066</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>0.3134060800075531</v>
+        <v>0.2154980003833771</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>0.3057145774364471</v>
+        <v>0.2625169456005096</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C150">
-        <v>0.2971291840076447</v>
+        <v>0.289572685956955</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>0.2621155381202698</v>
+        <v>0.303706169128418</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>0.2233768254518509</v>
+        <v>0.2961868345737457</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B153">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C153">
-        <v>0.1461875736713409</v>
+        <v>0.2680515348911285</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B154">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C154">
-        <v>0.1115059778094292</v>
+        <v>0.2296494543552399</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C155">
-        <v>0.07485850900411606</v>
+        <v>0.1460238099098206</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C156">
-        <v>0.01598526164889336</v>
+        <v>0.1111903637647629</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B157">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C157">
-        <v>-0.0007591397152282298</v>
+        <v>0.05022433772683144</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B158">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>-5.207273352425545E-05</v>
+        <v>0.00774445990100503</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>-5.207273352425545E-05</v>
+        <v>0.001660701353102922</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C160">
-        <v>0.0006720609380863607</v>
+        <v>0.0007646805024705827</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>3.525653664837591E-05</v>
+        <v>0.0007646805024705827</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>3.525653664837591E-05</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>-4.582531619234942E-05</v>
+        <v>0.001035457593388855</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>-4.582531619234942E-05</v>
+        <v>0.0008442752878181636</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>-9.03630570974201E-05</v>
+        <v>0.0001397532178089023</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B166">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>0.004999055992811918</v>
+        <v>-0.0004896137397736311</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>0.06086047738790512</v>
+        <v>-0.0004896137397736311</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>0.1394797414541245</v>
+        <v>0.002830072771757841</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C169">
-        <v>0.209879457950592</v>
+        <v>0.04819737002253532</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C170">
-        <v>0.2786152064800262</v>
+        <v>0.1081226617097855</v>
       </c>
     </row>
   </sheetData>
